--- a/Data/EC/NIT-9001388638.xlsx
+++ b/Data/EC/NIT-9001388638.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A530E078-0E97-42FF-A515-AE40AC4ABB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8232D4AF-CE1B-45EE-A131-9A7851BDA61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{427B3C53-2C10-41A4-AA5D-3364286FBB61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BDE3189-9046-4C73-A069-7E306B811DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,25 +65,25 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45563067</t>
+  </si>
+  <si>
+    <t>ANA ROSA MARQUEZ CUADRADO</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>3811484</t>
+  </si>
+  <si>
+    <t>OMAR ROCHA MARQUEZ</t>
+  </si>
+  <si>
     <t>72231013</t>
   </si>
   <si>
     <t>ERNESTO ANTONIO RAMOS SALGUEDO</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>45563067</t>
-  </si>
-  <si>
-    <t>ANA ROSA MARQUEZ CUADRADO</t>
-  </si>
-  <si>
-    <t>3811484</t>
-  </si>
-  <si>
-    <t>OMAR ROCHA MARQUEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -497,7 +497,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3087C9C0-0D22-699F-B4CC-B4AAC9A05962}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76473D4-65E9-B941-DBC1-94B2BC4CD56A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BE8CD-D4F3-4AE0-94A4-BEF6DFCDA7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A19A9E3-0778-4E7D-AD71-3B127A07520A}">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">

--- a/Data/EC/NIT-9001388638.xlsx
+++ b/Data/EC/NIT-9001388638.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8232D4AF-CE1B-45EE-A131-9A7851BDA61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD279201-9928-4E0E-919D-F6505F46C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BDE3189-9046-4C73-A069-7E306B811DB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D129156E-C6ED-4F78-BF08-74778CC79AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -182,22 +182,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -397,23 +397,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,10 +441,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,7 +497,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76473D4-65E9-B941-DBC1-94B2BC4CD56A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661A0638-7B41-E2EC-32E1-4B4701A44C2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A19A9E3-0778-4E7D-AD71-3B127A07520A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EE36F3-9D13-4D23-9F3B-BAD3B1B5AAC5}">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1029,7 +1029,7 @@
         <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1052,7 +1052,7 @@
         <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1075,7 +1075,7 @@
         <v>31249</v>
       </c>
       <c r="G18" s="24">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
